--- a/Modulo 4 - Mais tópicos de edição e formatação/aula-formatacao-condicional.xlsx
+++ b/Modulo 4 - Mais tópicos de edição e formatação/aula-formatacao-condicional.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarketTi\Desktop\Curso-Excel\Modulo 4 - Mais tópicos de edição e formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C068493B-EB1E-4212-AE9D-B6716B572070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Lançamentos" sheetId="2" r:id="rId2"/>
     <sheet name="Relatórios" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
@@ -207,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +245,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -502,12 +521,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -676,24 +743,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,15 +758,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,7 +773,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -738,7 +808,176 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -776,7 +1015,7 @@
         <xdr:cNvPr id="8" name="Retângulo: Único Canto Recortado 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D92666-11B7-401A-B465-5FF5EE91444B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D92666-11B7-401A-B465-5FF5EE91444B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -855,7 +1094,7 @@
         <xdr:cNvPr id="16" name="Imagem 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD455D8-DD2E-4E47-A793-02EFDF9CAC96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD455D8-DD2E-4E47-A793-02EFDF9CAC96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -898,7 +1137,7 @@
         <xdr:cNvPr id="17" name="CaixaDeTexto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F505DC-0525-4B37-B8DC-24B423530C24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F505DC-0525-4B37-B8DC-24B423530C24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -984,7 +1223,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A5EA32-C5C9-47A5-A9FE-68ABE8608E4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A5EA32-C5C9-47A5-A9FE-68ABE8608E4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1062,7 +1301,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6DEA5C-FE02-4F70-AC4E-521F970DE373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6DEA5C-FE02-4F70-AC4E-521F970DE373}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1384,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28257CA3-3903-423C-A6C2-F683C2E40B89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28257CA3-3903-423C-A6C2-F683C2E40B89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1462,7 @@
         <xdr:cNvPr id="4" name="CaixaDeTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDCDB88-ABAD-4D9C-B688-EE9AF895B4B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDCDB88-ABAD-4D9C-B688-EE9AF895B4B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1547,7 @@
         <xdr:cNvPr id="5" name="Retângulo: Único Canto Recortado 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5313F8A0-0508-40E1-BF8F-DE0267486572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5313F8A0-0508-40E1-BF8F-DE0267486572}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1628,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B69EAC-656C-43AB-8420-BB7D0198B779}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B69EAC-656C-43AB-8420-BB7D0198B779}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1711,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74767F19-F1BF-440F-AFCD-DD07336FB9A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74767F19-F1BF-440F-AFCD-DD07336FB9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1789,7 @@
         <xdr:cNvPr id="4" name="CaixaDeTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2D846A-C8E7-49BD-9759-CB65C0C90D7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2D846A-C8E7-49BD-9759-CB65C0C90D7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1875,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D06FE2-47E5-4094-A4BF-3D513125E10F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D06FE2-47E5-4094-A4BF-3D513125E10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1952,7 @@
         <xdr:cNvPr id="6" name="Retângulo: Único Canto Recortado 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B27A03-A007-472D-9845-C8D9BE715F5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01B27A03-A007-472D-9845-C8D9BE715F5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,20 +2313,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="11.7109375" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="16" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="3.7265625" customWidth="1"/>
+    <col min="18" max="16384" width="11.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2104,7 +2343,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2121,7 +2360,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2138,7 +2377,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2155,7 +2394,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2172,7 +2411,7 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2189,7 +2428,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2206,7 +2445,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" ht="17" x14ac:dyDescent="0.5">
       <c r="B8" s="5"/>
       <c r="C8" s="17"/>
       <c r="D8" s="6"/>
@@ -2223,7 +2462,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2240,7 +2479,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2257,7 +2496,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2274,7 +2513,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2291,7 +2530,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2308,7 +2547,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2325,7 +2564,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2342,7 +2581,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2359,7 +2598,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2376,7 +2615,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2393,7 +2632,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2410,7 +2649,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2427,7 +2666,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2444,7 +2683,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2468,20 +2707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="50" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" style="50" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" style="50" customWidth="1"/>
-    <col min="18" max="16384" width="11.7109375" style="50" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="50" customWidth="1"/>
+    <col min="2" max="16" width="11.7265625" style="50" customWidth="1"/>
+    <col min="17" max="17" width="3.7265625" style="50" customWidth="1"/>
+    <col min="18" max="16384" width="11.7265625" style="50" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="43" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="43" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="40"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -2498,7 +2737,7 @@
       <c r="O1" s="41"/>
       <c r="P1" s="42"/>
     </row>
-    <row r="2" spans="2:16" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="44"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -2515,7 +2754,7 @@
       <c r="O2" s="45"/>
       <c r="P2" s="46"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -2532,7 +2771,7 @@
       <c r="O3" s="48"/>
       <c r="P3" s="49"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="51"/>
       <c r="C4" s="52" t="s">
         <v>9</v>
@@ -2557,7 +2796,7 @@
       <c r="O4" s="78"/>
       <c r="P4" s="79"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="51"/>
       <c r="C5" s="57" t="s">
         <v>0</v>
@@ -2590,7 +2829,7 @@
       <c r="O5" s="78"/>
       <c r="P5" s="79"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="51"/>
       <c r="C6" s="60">
         <v>43374</v>
@@ -2618,7 +2857,7 @@
       <c r="O6" s="78"/>
       <c r="P6" s="79"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="51"/>
       <c r="C7" s="63">
         <v>43375</v>
@@ -2649,7 +2888,7 @@
       <c r="O7" s="78"/>
       <c r="P7" s="79"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="51"/>
       <c r="C8" s="63">
         <v>43376</v>
@@ -2680,7 +2919,7 @@
       <c r="O8" s="78"/>
       <c r="P8" s="79"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="51"/>
       <c r="C9" s="63">
         <v>43377</v>
@@ -2711,7 +2950,7 @@
       <c r="O9" s="78"/>
       <c r="P9" s="79"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="51"/>
       <c r="C10" s="63">
         <v>43378</v>
@@ -2742,7 +2981,7 @@
       <c r="O10" s="78"/>
       <c r="P10" s="79"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="51"/>
       <c r="C11" s="63">
         <v>43379</v>
@@ -2775,7 +3014,7 @@
       <c r="O11" s="78"/>
       <c r="P11" s="79"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="51"/>
       <c r="C12" s="63">
         <v>43380</v>
@@ -2806,7 +3045,7 @@
       <c r="O12" s="78"/>
       <c r="P12" s="79"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="51"/>
       <c r="C13" s="63">
         <v>43381</v>
@@ -2837,7 +3076,7 @@
       <c r="O13" s="78"/>
       <c r="P13" s="79"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="51"/>
       <c r="C14" s="63">
         <v>43382</v>
@@ -2866,7 +3105,7 @@
       <c r="O14" s="78"/>
       <c r="P14" s="79"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="51"/>
       <c r="C15" s="63">
         <v>43383</v>
@@ -2895,7 +3134,7 @@
       <c r="O15" s="78"/>
       <c r="P15" s="79"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="51"/>
       <c r="C16" s="63">
         <v>43384</v>
@@ -2926,7 +3165,7 @@
       <c r="O16" s="78"/>
       <c r="P16" s="79"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="51"/>
       <c r="C17" s="63">
         <v>43385</v>
@@ -2955,7 +3194,7 @@
       <c r="O17" s="78"/>
       <c r="P17" s="79"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="51"/>
       <c r="C18" s="63">
         <v>43386</v>
@@ -2984,7 +3223,7 @@
       <c r="O18" s="78"/>
       <c r="P18" s="79"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="51"/>
       <c r="C19" s="63">
         <v>43387</v>
@@ -3015,7 +3254,7 @@
       <c r="O19" s="78"/>
       <c r="P19" s="79"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="51"/>
       <c r="C20" s="66">
         <v>43388</v>
@@ -3050,7 +3289,7 @@
       <c r="O20" s="78"/>
       <c r="P20" s="79"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="51"/>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
@@ -3067,7 +3306,7 @@
       <c r="O21" s="78"/>
       <c r="P21" s="79"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="72"/>
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
@@ -3092,20 +3331,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="11.7109375" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="16" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="3.7265625" customWidth="1"/>
+    <col min="18" max="16384" width="11.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -3122,7 +3363,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="13"/>
     </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -3139,7 +3380,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -3156,7 +3397,7 @@
       <c r="O3" s="19"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="21"/>
       <c r="C4" s="31" t="s">
         <v>1</v>
@@ -3170,14 +3411,14 @@
         <v>2017</v>
       </c>
       <c r="J4" s="23"/>
-      <c r="K4" s="97">
+      <c r="K4" s="89">
         <v>2017</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="21"/>
       <c r="C5" s="33" t="s">
         <v>2</v>
@@ -3201,14 +3442,14 @@
         <v>8</v>
       </c>
       <c r="J5" s="23"/>
-      <c r="K5" s="100" t="s">
+      <c r="K5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="100"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="21"/>
       <c r="C6" s="80" t="s">
         <v>16</v>
@@ -3236,11 +3477,17 @@
         <f>AVERAGE(D6:I6)</f>
         <v>512.16666666666663</v>
       </c>
-      <c r="L6" s="84"/>
-      <c r="M6" s="94"/>
+      <c r="L6" s="97">
+        <f>K6</f>
+        <v>512.16666666666663</v>
+      </c>
+      <c r="M6" s="101">
+        <f>K6</f>
+        <v>512.16666666666663</v>
+      </c>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="21"/>
       <c r="C7" s="35" t="s">
         <v>17</v>
@@ -3268,13 +3515,19 @@
         <f t="shared" ref="K7:K17" si="0">AVERAGE(D7:I7)</f>
         <v>319.83333333333331</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="95"/>
+      <c r="L7" s="98">
+        <f t="shared" ref="L7:L17" si="1">K7</f>
+        <v>319.83333333333331</v>
+      </c>
+      <c r="M7" s="102">
+        <f t="shared" ref="M7:M17" si="2">K7</f>
+        <v>319.83333333333331</v>
+      </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="21"/>
       <c r="C8" s="35" t="s">
         <v>18</v>
@@ -3302,13 +3555,19 @@
         <f t="shared" si="0"/>
         <v>502.33333333333331</v>
       </c>
-      <c r="L8" s="85"/>
-      <c r="M8" s="95"/>
+      <c r="L8" s="98">
+        <f t="shared" si="1"/>
+        <v>502.33333333333331</v>
+      </c>
+      <c r="M8" s="102">
+        <f t="shared" si="2"/>
+        <v>502.33333333333331</v>
+      </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" s="21"/>
       <c r="C9" s="35" t="s">
         <v>19</v>
@@ -3336,13 +3595,19 @@
         <f>AVERAGE(D9:I9)</f>
         <v>309.16666666666669</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="95"/>
+      <c r="L9" s="98">
+        <f t="shared" si="1"/>
+        <v>309.16666666666669</v>
+      </c>
+      <c r="M9" s="102">
+        <f t="shared" si="2"/>
+        <v>309.16666666666669</v>
+      </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" s="21"/>
       <c r="C10" s="35" t="s">
         <v>20</v>
@@ -3370,13 +3635,19 @@
         <f t="shared" si="0"/>
         <v>300.83333333333331</v>
       </c>
-      <c r="L10" s="85"/>
-      <c r="M10" s="95"/>
+      <c r="L10" s="98">
+        <f t="shared" si="1"/>
+        <v>300.83333333333331</v>
+      </c>
+      <c r="M10" s="102">
+        <f t="shared" si="2"/>
+        <v>300.83333333333331</v>
+      </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" s="21"/>
       <c r="C11" s="35" t="s">
         <v>21</v>
@@ -3404,13 +3675,19 @@
         <f t="shared" si="0"/>
         <v>670.83333333333337</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="95"/>
+      <c r="L11" s="98">
+        <f t="shared" si="1"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="M11" s="102">
+        <f t="shared" si="2"/>
+        <v>670.83333333333337</v>
+      </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" s="21"/>
       <c r="C12" s="35" t="s">
         <v>22</v>
@@ -3438,13 +3715,19 @@
         <f t="shared" si="0"/>
         <v>594.66666666666663</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="95"/>
+      <c r="L12" s="98">
+        <f t="shared" si="1"/>
+        <v>594.66666666666663</v>
+      </c>
+      <c r="M12" s="102">
+        <f t="shared" si="2"/>
+        <v>594.66666666666663</v>
+      </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" s="21"/>
       <c r="C13" s="35" t="s">
         <v>23</v>
@@ -3472,13 +3755,19 @@
         <f t="shared" si="0"/>
         <v>468.33333333333331</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="95"/>
+      <c r="L13" s="98">
+        <f t="shared" si="1"/>
+        <v>468.33333333333331</v>
+      </c>
+      <c r="M13" s="102">
+        <f t="shared" si="2"/>
+        <v>468.33333333333331</v>
+      </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" s="21"/>
       <c r="C14" s="35" t="s">
         <v>24</v>
@@ -3506,13 +3795,19 @@
         <f t="shared" si="0"/>
         <v>566.66666666666663</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="95"/>
+      <c r="L14" s="98">
+        <f t="shared" si="1"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="M14" s="102">
+        <f t="shared" si="2"/>
+        <v>566.66666666666663</v>
+      </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" s="21"/>
       <c r="C15" s="35" t="s">
         <v>25</v>
@@ -3540,13 +3835,19 @@
         <f t="shared" si="0"/>
         <v>537</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="95"/>
+      <c r="L15" s="98">
+        <f t="shared" si="1"/>
+        <v>537</v>
+      </c>
+      <c r="M15" s="102">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="21"/>
       <c r="C16" s="35" t="s">
         <v>26</v>
@@ -3574,13 +3875,19 @@
         <f t="shared" si="0"/>
         <v>271.5</v>
       </c>
-      <c r="L16" s="85"/>
-      <c r="M16" s="95"/>
+      <c r="L16" s="98">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="M16" s="102">
+        <f t="shared" si="2"/>
+        <v>271.5</v>
+      </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="21"/>
       <c r="C17" s="37" t="s">
         <v>27</v>
@@ -3608,13 +3915,19 @@
         <f t="shared" si="0"/>
         <v>506.5</v>
       </c>
-      <c r="L17" s="86"/>
-      <c r="M17" s="96"/>
+      <c r="L17" s="99">
+        <f t="shared" si="1"/>
+        <v>506.5</v>
+      </c>
+      <c r="M17" s="103">
+        <f t="shared" si="2"/>
+        <v>506.5</v>
+      </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" s="21"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3631,16 +3944,16 @@
       <c r="O18" s="23"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="21"/>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="87">
         <v>900</v>
       </c>
       <c r="G19" s="23"/>
@@ -3656,38 +3969,38 @@
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" s="21"/>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="85" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F20" s="87">
         <v>100</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="88" t="s">
+      <c r="K20" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="93" t="s">
+      <c r="L20" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="88" t="s">
+      <c r="M20" s="84" t="s">
         <v>31</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" s="21"/>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="86" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="23"/>
@@ -3697,14 +4010,14 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="89"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -3726,7 +4039,56 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
   </mergeCells>
+  <conditionalFormatting sqref="D6:I17">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
+      <formula>$F$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$F$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L17">
+    <cfRule type="iconSet" priority="2">
+      <iconSet showValue="0" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="320" gte="0"/>
+        <cfvo type="num" val="550" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{90A2923A-FD6D-4512-9236-030CF1668A09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90A2923A-FD6D-4512-9236-030CF1668A09}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M6:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>